--- a/biology/Botanique/Physenaceae/Physenaceae.xlsx
+++ b/biology/Botanique/Physenaceae/Physenaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En classification phylogénétique, la famille des Physénacées regroupe des plantes dicotylédones vraies ; elle comporte 2 espèces du genre Physena.
 Ce sont des petits arbres ou arbustes, aux feuilles alternes, dioïques, à pollinisation anémophile, endémiques de Madagascar.
-Cette famille n'existe pas en classification classique de Cronquist (1981)[1].
+Cette famille n'existe pas en classification classique de Cronquist (1981).
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom vient du genre type Physena dérivé du grec φῦσα / phusa, bulle, en référence à ses gros fruits[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom vient du genre type Physena dérivé du grec φῦσα / phusa, bulle, en référence à ses gros fruits.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010)[3], World Checklist of Selected Plant Families (WCSP)  (4 mai 2010)[4], NCBI  (4 mai 2010)[5], DELTA Angio           (4 mai 2010)[6] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Angiosperm Phylogeny Website                        (4 mai 2010), World Checklist of Selected Plant Families (WCSP)  (4 mai 2010), NCBI  (4 mai 2010), DELTA Angio           (4 mai 2010) :
 genre Physena (en)  Noronha ex Thouars (1806)</t>
         </is>
       </c>
@@ -575,13 +591,15 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (4 mai 2010)[4] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (4 mai 2010) :
 genre Physena (en)  Noronha ex Thouars (1806)
 Physena madagascariensis  Steud., Ann. Sci. Nat. (1857)
 Physena sessiliflora  Tul., Ann. Sci. Nat. (1857)
-Selon NCBI  (4 mai 2010)[5] :
+Selon NCBI  (4 mai 2010) :
 genre Physena
 Physena sp. Schatz 2350</t>
         </is>
